--- a/Project Step 2/Sample Data and Queries.xlsx
+++ b/Project Step 2/Sample Data and Queries.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Sync\School\340\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Logan\Sync\School\340\CS_340_Group\Project Step 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E6883-6028-45E4-9C3E-3248675496E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E91605C-73C9-4F27-919D-97BAC41E4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DA73352F-E548-4C9F-BA37-3D25366C6CB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DA73352F-E548-4C9F-BA37-3D25366C6CB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Movie and Movie_Genre" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Theater" sheetId="3" r:id="rId3"/>
     <sheet name="Showtime" sheetId="4" r:id="rId4"/>
     <sheet name="Customer and Ticket" sheetId="5" r:id="rId5"/>
+    <sheet name="Ticket Dummy for UI" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="120">
   <si>
     <t>movie_id</t>
   </si>
@@ -385,6 +386,21 @@
   </si>
   <si>
     <t>customer.last_name</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Shotime</t>
+  </si>
+  <si>
+    <t>Theater</t>
+  </si>
+  <si>
+    <t>Showtime ID</t>
+  </si>
+  <si>
+    <t>move name</t>
   </si>
 </sst>
 </file>
@@ -428,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -436,23 +452,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA05E288-4D8D-4A14-B5A5-3CD6A8F810F7}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -787,328 +790,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>95</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1">
         <v>1964</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9"/>
       <c r="H2" t="str">
         <f>"(" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp; C2 &amp; ", '" &amp; D2 &amp; "', " &amp; E2 &amp; "),"</f>
         <v>(1, 'Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb', 95, 'PG', 1964),</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>169</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <v>2014</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9"/>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H8" si="0">"(" &amp; A3 &amp; ", '" &amp; B3 &amp; "', " &amp; C3 &amp; ", '" &amp; D3 &amp; "', " &amp; E3 &amp; "),"</f>
+        <f>"(" &amp; A3 &amp; ", '" &amp; B3 &amp; "', " &amp; C3 &amp; ", '" &amp; D3 &amp; "', " &amp; E3 &amp; "),"</f>
         <v>(2, 'Interstellar', 169, 'PG-13', 2014),</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>122</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <v>2001</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="9"/>
       <c r="H4" t="str">
-        <f t="shared" si="0"/>
+        <f>"(" &amp; A4 &amp; ", '" &amp; B4 &amp; "', " &amp; C4 &amp; ", '" &amp; D4 &amp; "', " &amp; E4 &amp; "),"</f>
         <v>(3, 'Amélie', 122, 'R', 2001),</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <v>146</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <v>1980</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9"/>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f>"(" &amp; A5 &amp; ", '" &amp; B5 &amp; "', " &amp; C5 &amp; ", '" &amp; D5 &amp; "', " &amp; E5 &amp; "),"</f>
         <v>(4, 'The Shining', 146, 'R', 1980),</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <v>139</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="1">
         <v>2022</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="9"/>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f>"(" &amp; A6 &amp; ", '" &amp; B6 &amp; "', " &amp; C6 &amp; ", '" &amp; D6 &amp; "', " &amp; E6 &amp; "),"</f>
         <v>(5, 'Everything Everywhere All at Once', 139, 'R', 2022),</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>102</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="1">
         <v>2021</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9"/>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f>"(" &amp; A7 &amp; ", '" &amp; B7 &amp; "', " &amp; C7 &amp; ", '" &amp; D7 &amp; "', " &amp; E7 &amp; "),"</f>
         <v>(6, 'Encanto', 102, 'PG', 2021),</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="1">
         <v>91</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="1">
         <v>2007</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="9"/>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f>"(" &amp; A8 &amp; ", '" &amp; B8 &amp; "', " &amp; C8 &amp; ", '" &amp; D8 &amp; "', " &amp; E8 &amp; "),"</f>
         <v>(7, 'Bee Movie', 91, 'PG', 2007),</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-    </row>
     <row r="15" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18">
         <v>3</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22">
         <v>7</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
     </row>
     <row r="28" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1455,8 +1424,441 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H54" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="str">
+        <f>VLOOKUP(E55,$A$2:$B$8,2)</f>
+        <v>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(F55,Genre!$A$2:$B$23,2)</f>
+        <v>Comedy</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" ref="B56:B76" si="0">VLOOKUP(E56,$A$2:$B$8,2)</f>
+        <v>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP(F56,Genre!$A$2:$B$23,2)</f>
+        <v>Action</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Interstellar</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(F57,Genre!$A$2:$B$23,2)</f>
+        <v>Sci-Fi</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Interstellar</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP(F58,Genre!$A$2:$B$23,2)</f>
+        <v>Action</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Interstellar</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(F59,Genre!$A$2:$B$23,2)</f>
+        <v>Adventure</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Interstellar</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(F60,Genre!$A$2:$B$23,2)</f>
+        <v>Thriller</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Amélie</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(F61,Genre!$A$2:$B$23,2)</f>
+        <v>Romance</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Amélie</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(F62,Genre!$A$2:$B$23,2)</f>
+        <v>Comedy</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>9</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>The Shining</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(F63,Genre!$A$2:$B$23,2)</f>
+        <v>Horror</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>The Shining</v>
+      </c>
+      <c r="C64" t="str">
+        <f>VLOOKUP(F64,Genre!$A$2:$B$23,2)</f>
+        <v>Mystery</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Everything Everywhere All at Once</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(F65,Genre!$A$2:$B$23,2)</f>
+        <v>Sci-Fi</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>12</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>Everything Everywhere All at Once</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(F66,Genre!$A$2:$B$23,2)</f>
+        <v>Comedy</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+      <c r="F66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="0"/>
+        <v>Everything Everywhere All at Once</v>
+      </c>
+      <c r="C67" t="str">
+        <f>VLOOKUP(F67,Genre!$A$2:$B$23,2)</f>
+        <v>Mystery</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="0"/>
+        <v>Encanto</v>
+      </c>
+      <c r="C68" t="str">
+        <f>VLOOKUP(F68,Genre!$A$2:$B$23,2)</f>
+        <v>Kids</v>
+      </c>
+      <c r="E68">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>15</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v>Encanto</v>
+      </c>
+      <c r="C69" t="str">
+        <f>VLOOKUP(F69,Genre!$A$2:$B$23,2)</f>
+        <v>Family</v>
+      </c>
+      <c r="E69">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="0"/>
+        <v>Encanto</v>
+      </c>
+      <c r="C70" t="str">
+        <f>VLOOKUP(F70,Genre!$A$2:$B$23,2)</f>
+        <v>Musical</v>
+      </c>
+      <c r="E70">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="0"/>
+        <v>Encanto</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(F71,Genre!$A$2:$B$23,2)</f>
+        <v>Adventure</v>
+      </c>
+      <c r="E71">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>18</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="0"/>
+        <v>Bee Movie</v>
+      </c>
+      <c r="C72" t="str">
+        <f>VLOOKUP(F72,Genre!$A$2:$B$23,2)</f>
+        <v>Family</v>
+      </c>
+      <c r="E72">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>19</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="0"/>
+        <v>Bee Movie</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(F73,Genre!$A$2:$B$23,2)</f>
+        <v>Comedy</v>
+      </c>
+      <c r="E73">
+        <v>7</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>20</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="0"/>
+        <v>Bee Movie</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(F74,Genre!$A$2:$B$23,2)</f>
+        <v>Action</v>
+      </c>
+      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="F74">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>21</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="0"/>
+        <v>Bee Movie</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(F75,Genre!$A$2:$B$23,2)</f>
+        <v>Adventure</v>
+      </c>
+      <c r="E75">
+        <v>7</v>
+      </c>
+      <c r="F75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>22</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="0"/>
+        <v>Bee Movie</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(F76,Genre!$A$2:$B$23,2)</f>
+        <v>Cult Classic</v>
+      </c>
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +2293,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
   </cols>
@@ -1900,7 +2302,7 @@
       <c r="A1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C1" t="s">
@@ -1917,7 +2319,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C2">
@@ -1935,7 +2337,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C3">
@@ -1953,7 +2355,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C4">
@@ -1971,7 +2373,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C5">
@@ -1989,7 +2391,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C6">
@@ -2007,7 +2409,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C7">
@@ -2025,7 +2427,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C8">
@@ -2048,8 +2450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05EC5EC-3622-4D04-AFB5-B7C2426900B0}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20:I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2491,7 @@
       <c r="C2" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>28278</v>
       </c>
       <c r="E2" t="s">
@@ -2106,7 +2508,7 @@
       <c r="C3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>28027</v>
       </c>
       <c r="E3" t="s">
@@ -2123,7 +2525,7 @@
       <c r="C4" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>33459</v>
       </c>
       <c r="E4" t="s">
@@ -2140,7 +2542,7 @@
       <c r="C5" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>23802</v>
       </c>
       <c r="E5" t="s">
@@ -2157,7 +2559,7 @@
       <c r="C6" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>32815</v>
       </c>
       <c r="E6" t="s">
@@ -2174,7 +2576,7 @@
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>16941</v>
       </c>
       <c r="E7" t="s">
@@ -2191,7 +2593,7 @@
       <c r="C8" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>37041</v>
       </c>
       <c r="E8" t="s">
@@ -2208,7 +2610,7 @@
       <c r="C9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>43071</v>
       </c>
       <c r="E9" t="s">
@@ -2264,7 +2666,7 @@
       <c r="E20">
         <v>5</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>9</v>
       </c>
       <c r="G20" t="s">
@@ -2293,7 +2695,7 @@
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>5</v>
       </c>
       <c r="G21" t="s">
@@ -2322,7 +2724,7 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>9</v>
       </c>
       <c r="G22" t="s">
@@ -2351,7 +2753,7 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>9</v>
       </c>
       <c r="G23" t="s">
@@ -2380,7 +2782,7 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>9</v>
       </c>
       <c r="G24" t="s">
@@ -2409,7 +2811,7 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>9</v>
       </c>
       <c r="G25" t="s">
@@ -2421,10 +2823,285 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="6"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="6"/>
+      <c r="C27" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39C8107-B80B-480C-98F0-C3C1B8053902}">
+  <dimension ref="A6:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G36:G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(B7, 'Customer and Ticket'!$A$2:$C$9, 2)</f>
+        <v>Stephanie</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(B7, 'Customer and Ticket'!$A$2:$C$9, 3)</f>
+        <v>Helmsley</v>
+      </c>
+      <c r="E7" t="str">
+        <f>VLOOKUP(O7, Showtime!$A$2:$B$8, 2)</f>
+        <v>2023-02-14 18:00:00</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(VLOOKUP(O7, Showtime!$A$2:$D$8, 3), 'Movie and Movie_Genre'!$A$2:$B$8, 2)</f>
+        <v>Bee Movie</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(VLOOKUP(O7, Showtime!$A$2:$D$8, 4),Theater!$A$2:$B$7, 2)</f>
+        <v>IncrediFilms Rogers Park</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(B8, 'Customer and Ticket'!$A$2:$C$9, 2)</f>
+        <v>Stephanie</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(B8, 'Customer and Ticket'!$A$2:$C$9, 3)</f>
+        <v>Helmsley</v>
+      </c>
+      <c r="E8" t="str">
+        <f>VLOOKUP(O8, Showtime!$A$2:$B$8, 2)</f>
+        <v>2023-02-16 12:00:00</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(VLOOKUP(O8, Showtime!$A$2:$D$8, 3), 'Movie and Movie_Genre'!$A$2:$B$8, 2)</f>
+        <v>Amélie</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(VLOOKUP(O8, Showtime!$A$2:$D$8, 4),Theater!$A$2:$B$7, 2)</f>
+        <v>IncrediFilms North Center</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(B9, 'Customer and Ticket'!$A$2:$C$9, 2)</f>
+        <v>Em</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(B9, 'Customer and Ticket'!$A$2:$C$9, 3)</f>
+        <v>Patterson</v>
+      </c>
+      <c r="E9" t="str">
+        <f>VLOOKUP(O9, Showtime!$A$2:$B$8, 2)</f>
+        <v>2023-02-10 16:00:00</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(VLOOKUP(O9, Showtime!$A$2:$D$8, 3), 'Movie and Movie_Genre'!$A$2:$B$8, 2)</f>
+        <v>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(VLOOKUP(O9, Showtime!$A$2:$D$8, 4),Theater!$A$2:$B$7, 2)</f>
+        <v>IncrediFilms Rogers Park</v>
+      </c>
+      <c r="H9" s="5">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="str">
+        <f>VLOOKUP(O10, Showtime!$A$2:$B$8, 2)</f>
+        <v>2023-02-10 16:00:00</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(VLOOKUP(O10, Showtime!$A$2:$D$8, 3), 'Movie and Movie_Genre'!$A$2:$B$8, 2)</f>
+        <v>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(VLOOKUP(O10, Showtime!$A$2:$D$8, 4),Theater!$A$2:$B$7, 2)</f>
+        <v>IncrediFilms Rogers Park</v>
+      </c>
+      <c r="H10" s="5">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11, 'Customer and Ticket'!$A$2:$C$9, 2)</f>
+        <v>Alexa</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(B11, 'Customer and Ticket'!$A$2:$C$9, 3)</f>
+        <v>Bliss</v>
+      </c>
+      <c r="E11" t="str">
+        <f>VLOOKUP(O11, Showtime!$A$2:$B$8, 2)</f>
+        <v>2023-02-10 15:00:00</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(VLOOKUP(O11, Showtime!$A$2:$D$8, 3), 'Movie and Movie_Genre'!$A$2:$B$8, 2)</f>
+        <v>Interstellar</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(VLOOKUP(O11, Showtime!$A$2:$D$8, 4),Theater!$A$2:$B$7, 2)</f>
+        <v>IncrediFilms Lincoln Square</v>
+      </c>
+      <c r="H11" s="5">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12, 'Customer and Ticket'!$A$2:$C$9, 2)</f>
+        <v>Booker</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(B12, 'Customer and Ticket'!$A$2:$C$9, 3)</f>
+        <v>T</v>
+      </c>
+      <c r="E12" t="str">
+        <f>VLOOKUP(O12, Showtime!$A$2:$B$8, 2)</f>
+        <v>2023-02-14 18:00:00</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(VLOOKUP(O12, Showtime!$A$2:$D$8, 3), 'Movie and Movie_Genre'!$A$2:$B$8, 2)</f>
+        <v>Bee Movie</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(VLOOKUP(O12, Showtime!$A$2:$D$8, 4),Theater!$A$2:$B$7, 2)</f>
+        <v>IncrediFilms Wicker Park</v>
+      </c>
+      <c r="H12" s="5">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
